--- a/biology/Médecine/Charles_Oberling/Charles_Oberling.xlsx
+++ b/biology/Médecine/Charles_Oberling/Charles_Oberling.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Oberling (Metz, 31 juillet 1895 - Neuilly-sur-Seine, 11 mars 1960[1]) est un médecin et cancérologue français, professeur au Collège de France et le premier doyen de la faculté de médecine de Téhéran. Il est l'auteur de nombreux ouvrages traitant du cancer et de la cancérologie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Oberling (Metz, 31 juillet 1895 - Neuilly-sur-Seine, 11 mars 1960) est un médecin et cancérologue français, professeur au Collège de France et le premier doyen de la faculté de médecine de Téhéran. Il est l'auteur de nombreux ouvrages traitant du cancer et de la cancérologie.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils d’un employé des chemins de fer, Charles Oberling voit le jour le 31 juillet 1895, à Metz, une ville de garnison animée d'Alsace-Lorraine[2]. Malgré ses nombreux voyages, aux États-Unis, en Iran, en Allemagne et en France, il restera, durant toute sa vie, attaché à sa ville natale, « ville forte par excellence »[3]. Scolarisé en Alsace-Lorraine, il fait naturellement toutes ses études en allemand. En 1913, il poursuit des études de médecine, à Strasbourg, obtenant son doctorat en Médecine en 1919.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d’un employé des chemins de fer, Charles Oberling voit le jour le 31 juillet 1895, à Metz, une ville de garnison animée d'Alsace-Lorraine. Malgré ses nombreux voyages, aux États-Unis, en Iran, en Allemagne et en France, il restera, durant toute sa vie, attaché à sa ville natale, « ville forte par excellence ». Scolarisé en Alsace-Lorraine, il fait naturellement toutes ses études en allemand. En 1913, il poursuit des études de médecine, à Strasbourg, obtenant son doctorat en Médecine en 1919.
 Ayant opté pour la nationalité française, Oberling est admis comme interne à l'université de Strasbourg et devient l'assistant du professeur Pierre Masson. Il travaille à l'Institut d'Anatomie pathologique jusqu'en 1926. En 1928, Charles Oberling obtient une chaire d'Histologie, Embryologie et anatomie pathologique à la Faculté de médecine de Paris. Il oriente ses recherches sur les tumeurs du système nerveux et des méninges. De retour à Strasbourg en 1936, il dirige l'Institut de Bactériologie.
-Lors de la Seconde Guerre mondiale, l'université de Strasbourg est délocalisée. Fin 1939, sur proposition des autorités françaises, Charles Oberling devient conseiller pour l'hygiène auprès du gouvernement iranien[4]. Élu doyen de la Faculté de médecine de Téhéran peu après, il réorganise l'université et les études. De 1942 à 1944, il travaille comme pathologiste à l’hôpital de Cooperstown aux États-Unis, publiant alors The Riddle of cancer, puis il retourne à Téhéran.
+Lors de la Seconde Guerre mondiale, l'université de Strasbourg est délocalisée. Fin 1939, sur proposition des autorités françaises, Charles Oberling devient conseiller pour l'hygiène auprès du gouvernement iranien. Élu doyen de la Faculté de médecine de Téhéran peu après, il réorganise l'université et les études. De 1942 à 1944, il travaille comme pathologiste à l’hôpital de Cooperstown aux États-Unis, publiant alors The Riddle of cancer, puis il retourne à Téhéran.
 En 1948, le professeur Oberling revient en France pour diriger un Institut de recherche sur le cancer pour le CNRS. Il obtient une chaire de cancérologie à la Faculté de Paris en 1949, puis une chaire de Médecine expérimentale au Collège de France. Il est élu membre de la section des sciences biologiques de l'Académie nationale de médecine.
 Charles Oberling meurt à Neuilly-sur-Seine le 11 mars 1960.
 </t>
@@ -546,7 +560,9 @@
           <t>Publications scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Voir également la liste des publications dans les sites idref.fr et bnf.fr.
  Le système réticulo-endothélial, Paris : Masson, 1924.
@@ -569,7 +585,7 @@
 Le cancer, Paris : Gallimard, coll. «L'avenir de la science», 1954.
 Leçons inaugurales 19-28, 1955-1958, Paris : Collège de France, 1955-1958.
 Leçon inaugurale faite le vendredi 6 janvier 1956, Collège de France, Chaire de médecine expérimentale, Paris : Collège de France, imp. 1956.
-(de)Krebs : das Rätsel seiner Entstehung, Hamburg : Rowohlt, 1959[5].
+(de)Krebs : das Rätsel seiner Entstehung, Hamburg : Rowohlt, 1959.
 Néoplasies et cancers à virus, Paris : A. Legrand, 1961.
 En collaboration
 Recherches sur des greffes en série de tumeurs mammaires bénignes chez le rat, M. et P. Guérin;  Paris : Masson, 1934.
